--- a/template/AUTOREPORTE.xlsx
+++ b/template/AUTOREPORTE.xlsx
@@ -901,64 +901,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1457325" cy="1390650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3114675" cy="1066800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,7 +916,7 @@
     <xdr:ext cx="847725" cy="466725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3122,15 +3065,41 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="J5:AF5"/>
-    <mergeCell ref="S6:AE6"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="N7:AE7"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="A9:AE10"/>
+    <mergeCell ref="A11:AE11"/>
+    <mergeCell ref="A12:AE12"/>
+    <mergeCell ref="A13:AE13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AM16:AS17"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AQ18:AS18"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AQ19:AS19"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AQ20:AS20"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="A15:AS15"/>
+    <mergeCell ref="A16:AL20"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:AF4"/>
+    <mergeCell ref="AG4:AN4"/>
+    <mergeCell ref="AO4:AS4"/>
+    <mergeCell ref="AG5:AN5"/>
+    <mergeCell ref="AO5:AS5"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="J1:AN2"/>
     <mergeCell ref="AO1:AS2"/>
@@ -3138,48 +3107,22 @@
     <mergeCell ref="AF3:AO3"/>
     <mergeCell ref="AP3:AS3"/>
     <mergeCell ref="A4:C5"/>
-    <mergeCell ref="AG4:AN4"/>
-    <mergeCell ref="AO4:AS4"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:AF5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="O6:R6"/>
-    <mergeCell ref="AG5:AN5"/>
-    <mergeCell ref="AO5:AS5"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="J4:AF4"/>
-    <mergeCell ref="AM16:AS17"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AQ18:AS18"/>
-    <mergeCell ref="A11:AE11"/>
-    <mergeCell ref="A12:AE12"/>
-    <mergeCell ref="A13:AE13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:AE14"/>
-    <mergeCell ref="A15:AS15"/>
-    <mergeCell ref="A16:AL20"/>
-    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="N7:AE7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="AH7:AJ7"/>
     <mergeCell ref="AK7:AL7"/>
     <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AS7"/>
     <mergeCell ref="A8:AS8"/>
-    <mergeCell ref="A9:AE10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AQ20:AS20"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="1.141732283464567" footer="0.0" header="0.0" left="0.5118110236220472" right="0.5118110236220472" top="1.141732283464567"/>

--- a/template/AUTOREPORTE.xlsx
+++ b/template/AUTOREPORTE.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12540"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="AUTOREPORTE CONDICONES SALUD" sheetId="1" r:id="rId4"/>
+    <sheet name="AUTOREPORTE CONDICONES SALUD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -18,18 +34,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Codigo:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> SES-SGI-F189</t>
     </r>
@@ -37,18 +55,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Fecha de Emisión:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 02 Diciembre / 2024</t>
     </r>
@@ -56,18 +76,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Rev</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> . 4</t>
     </r>
@@ -160,18 +182,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Nota:</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="14.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Si por lo menos una de sus respuestas fue afirmativa, comuníqueselo inmediatamente a su jefe inmediato.</t>
     </r>
@@ -189,7 +213,7 @@
     <t xml:space="preserve">COORDINADORA QHSE </t>
   </si>
   <si>
-    <t>312 2285065</t>
+    <t>310 7533817</t>
   </si>
   <si>
     <t xml:space="preserve">INSPECTOR VIAL </t>
@@ -201,84 +225,265 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="28.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -292,71 +497,289 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
-    <border/>
+  <borders count="21">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -366,15 +789,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -389,162 +804,639 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -734,26 +1626,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="2.86"/>
-    <col customWidth="1" min="4" max="9" width="4.71"/>
-    <col customWidth="1" min="10" max="31" width="2.57"/>
-    <col customWidth="1" min="32" max="45" width="9.86"/>
+    <col min="1" max="3" width="2.85714285714286" customWidth="1"/>
+    <col min="4" max="9" width="4.71428571428571" customWidth="1"/>
+    <col min="10" max="31" width="2.57142857142857" customWidth="1"/>
+    <col min="32" max="45" width="9.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.0" customHeight="1">
+    <row r="1" ht="60" customHeight="1" spans="1:45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -762,8 +1656,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2"/>
@@ -795,374 +1689,374 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="4"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="22"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="3"/>
+      <c r="AS1" s="8"/>
     </row>
-    <row r="2" ht="60.0" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="7"/>
+    <row r="2" ht="60" customHeight="1" spans="1:45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="10"/>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:45">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="11" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="11" t="s">
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="10"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="12"/>
     </row>
-    <row r="4" ht="27.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="27.75" customHeight="1" spans="1:45">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="13" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="13" t="s">
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="10"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="12"/>
     </row>
-    <row r="5" ht="27.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="10"/>
+    <row r="5" ht="27.75" customHeight="1" spans="1:45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="12"/>
     </row>
-    <row r="6" ht="27.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+    <row r="6" ht="27.75" customHeight="1" spans="1:45">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="18" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="13" t="s">
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="10"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="12"/>
     </row>
-    <row r="7" ht="27.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+    <row r="7" ht="27.75" customHeight="1" spans="1:45">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="13" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="13" t="s">
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="13" t="s">
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="10"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="12"/>
     </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="10"/>
+    <row r="8" customHeight="1" spans="1:45">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="12"/>
     </row>
-    <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="24" t="s">
+    <row r="9" ht="21" customHeight="1" spans="1:45">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2"/>
@@ -1194,360 +2088,360 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="25" t="s">
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="25" t="s">
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="25" t="s">
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="25" t="s">
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="25" t="s">
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="25" t="s">
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="25" t="s">
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AS9" s="10"/>
+      <c r="AS9" s="12"/>
     </row>
-    <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="26" t="s">
+    <row r="10" ht="21" customHeight="1" spans="1:45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AG10" s="26" t="s">
+      <c r="AG10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AH10" s="26" t="s">
+      <c r="AH10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AI10" s="26" t="s">
+      <c r="AI10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AJ10" s="26" t="s">
+      <c r="AJ10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AK10" s="26" t="s">
+      <c r="AK10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AL10" s="26" t="s">
+      <c r="AL10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AM10" s="26" t="s">
+      <c r="AM10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AN10" s="26" t="s">
+      <c r="AN10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AO10" s="26" t="s">
+      <c r="AO10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AP10" s="26" t="s">
+      <c r="AP10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AQ10" s="26" t="s">
+      <c r="AQ10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AR10" s="26" t="s">
+      <c r="AR10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AS10" s="26" t="s">
+      <c r="AS10" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="54.0" customHeight="1">
-      <c r="A11" s="27" t="s">
+    <row r="11" ht="54" customHeight="1" spans="1:45">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
     </row>
-    <row r="12" ht="54.0" customHeight="1">
-      <c r="A12" s="27" t="s">
+    <row r="12" ht="54" customHeight="1" spans="1:45">
+      <c r="A12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
     </row>
-    <row r="13" ht="54.0" customHeight="1">
-      <c r="A13" s="27" t="s">
+    <row r="13" ht="54" customHeight="1" spans="1:45">
+      <c r="A13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
     </row>
-    <row r="14" ht="144.0" customHeight="1">
-      <c r="A14" s="31" t="s">
+    <row r="14" ht="144" customHeight="1" spans="1:45">
+      <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="27" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="12"/>
       <c r="AH14" s="32"/>
-      <c r="AI14" s="10"/>
+      <c r="AI14" s="12"/>
       <c r="AJ14" s="32"/>
-      <c r="AK14" s="10"/>
+      <c r="AK14" s="12"/>
       <c r="AL14" s="32"/>
-      <c r="AM14" s="10"/>
+      <c r="AM14" s="12"/>
       <c r="AN14" s="32"/>
-      <c r="AO14" s="10"/>
+      <c r="AO14" s="12"/>
       <c r="AP14" s="32"/>
-      <c r="AQ14" s="10"/>
+      <c r="AQ14" s="12"/>
       <c r="AR14" s="32"/>
-      <c r="AS14" s="10"/>
+      <c r="AS14" s="12"/>
     </row>
-    <row r="15" ht="27.75" customHeight="1">
-      <c r="A15" s="25" t="s">
+    <row r="15" ht="27.75" customHeight="1" spans="1:45">
+      <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="12"/>
     </row>
-    <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="33" t="s">
+    <row r="16" ht="21" customHeight="1" spans="1:45">
+      <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2"/>
@@ -1586,8 +2480,8 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="34" t="s">
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="33" t="s">
         <v>33</v>
       </c>
       <c r="AN16" s="2"/>
@@ -1595,99 +2489,99 @@
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="3"/>
+      <c r="AS16" s="8"/>
     </row>
-    <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="7"/>
+    <row r="17" ht="21" customHeight="1" spans="1:45">
+      <c r="A17" s="21"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="10"/>
     </row>
-    <row r="18" ht="21.0" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="37" t="s">
+    <row r="18" ht="21" customHeight="1" spans="1:45">
+      <c r="A18" s="21"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="38" t="s">
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="10"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="12"/>
     </row>
-    <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="37" t="s">
+    <row r="19" ht="21" customHeight="1" spans="1:45">
+      <c r="A19" s="21"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="38" t="s">
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="10"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="12"/>
     </row>
-    <row r="20" ht="21.0" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="37" t="s">
+    <row r="20" ht="21" customHeight="1" spans="1:45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="38" t="s">
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="10"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2671,6 +3565,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="AF3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:AF4"/>
+    <mergeCell ref="AG4:AN4"/>
+    <mergeCell ref="AO4:AS4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:AF5"/>
+    <mergeCell ref="AG5:AN5"/>
+    <mergeCell ref="AO5:AS5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="N7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="A8:AS8"/>
     <mergeCell ref="AF9:AG9"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AJ9:AK9"/>
@@ -2678,61 +3597,35 @@
     <mergeCell ref="AN9:AO9"/>
     <mergeCell ref="AP9:AQ9"/>
     <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="A9:AE10"/>
     <mergeCell ref="A11:AE11"/>
     <mergeCell ref="A12:AE12"/>
     <mergeCell ref="A13:AE13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="I14:AE14"/>
     <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
     <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AM16:AS17"/>
+    <mergeCell ref="A15:AS15"/>
     <mergeCell ref="AM18:AP18"/>
     <mergeCell ref="AQ18:AS18"/>
     <mergeCell ref="AM19:AP19"/>
     <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="AM20:AP20"/>
     <mergeCell ref="AQ20:AS20"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="A15:AS15"/>
+    <mergeCell ref="A9:AE10"/>
+    <mergeCell ref="AM16:AS17"/>
     <mergeCell ref="A16:AL20"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:AF4"/>
-    <mergeCell ref="AG4:AN4"/>
-    <mergeCell ref="AO4:AS4"/>
-    <mergeCell ref="AG5:AN5"/>
-    <mergeCell ref="AO5:AS5"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="J1:AN2"/>
     <mergeCell ref="AO1:AS2"/>
-    <mergeCell ref="A3:AE3"/>
-    <mergeCell ref="AF3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
     <mergeCell ref="A4:C5"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:AF5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="S6:AE6"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="N7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="A8:AS8"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.141732283464567" footer="0.0" header="0.0" left="0.5118110236220472" right="0.5118110236220472" top="1.141732283464567"/>
+  <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.14173228346457" bottom="1.14173228346457" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>